--- a/data/dept/SNAP.xlsx
+++ b/data/dept/SNAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\AUP Automata\data\dept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E076E-131A-41F0-BE52-1B6199C96FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6415F160-48EB-4674-B437-9478A6049976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="139">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="140">
   <si>
     <t>Department</t>
   </si>
@@ -37,7 +34,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>System1</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>Snapchat</t>
@@ -307,15 +304,18 @@
     <t>KLSE</t>
   </si>
   <si>
+    <t>LSE1</t>
+  </si>
+  <si>
+    <t>SHEET1</t>
+  </si>
+  <si>
     <t>NYSE</t>
   </si>
   <si>
     <t>SGX</t>
   </si>
   <si>
-    <t>SSE</t>
-  </si>
-  <si>
     <t>TSE</t>
   </si>
   <si>
@@ -329,6 +329,23 @@
   </si>
   <si>
     <t>Please select dropdown</t>
+  </si>
+  <si>
+    <r>
+      <t>System</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Submitted by: </t>
@@ -905,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -948,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>100</v>
@@ -964,8 +981,8 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>51</v>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -974,14 +991,12 @@
         <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
@@ -989,24 +1004,22 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>52</v>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
     </row>
@@ -1014,24 +1027,22 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
-        <v>53</v>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
@@ -1039,24 +1050,22 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>54</v>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
@@ -1064,24 +1073,22 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
-        <v>338</v>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
@@ -1089,24 +1096,22 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>339</v>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
@@ -1114,8 +1119,8 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
-        <v>340</v>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
@@ -1124,14 +1129,12 @@
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
@@ -1139,24 +1142,22 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <v>341</v>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
@@ -1164,24 +1165,22 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
-        <v>342</v>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
@@ -1189,24 +1188,22 @@
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
-        <v>343</v>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
@@ -1214,24 +1211,22 @@
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
-        <v>344</v>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
@@ -1239,24 +1234,22 @@
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
-        <v>345</v>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
     </row>
@@ -1264,24 +1257,22 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="10">
-        <v>346</v>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
@@ -1289,24 +1280,22 @@
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
-        <v>347</v>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
@@ -1314,24 +1303,22 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
-        <v>348</v>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
     </row>
@@ -1339,24 +1326,22 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
-        <v>349</v>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
@@ -1364,24 +1349,22 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="10">
-        <v>350</v>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
@@ -1389,24 +1372,22 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
-        <v>351</v>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
@@ -1414,24 +1395,22 @@
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="10">
-        <v>352</v>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
@@ -1439,24 +1418,22 @@
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="10">
-        <v>353</v>
+      <c r="B23" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
@@ -1464,24 +1441,22 @@
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
-        <v>354</v>
+      <c r="B24" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11"/>
     </row>
@@ -1489,24 +1464,22 @@
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
-        <v>355</v>
+      <c r="B25" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
     </row>
@@ -1514,24 +1487,22 @@
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
-        <v>356</v>
+      <c r="B26" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
     </row>
@@ -1539,24 +1510,22 @@
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="10">
-        <v>357</v>
+      <c r="B27" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
     </row>
@@ -1564,24 +1533,22 @@
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="10">
-        <v>358</v>
+      <c r="B28" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
     </row>
@@ -1589,24 +1556,22 @@
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="10">
-        <v>359</v>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
     </row>
@@ -1614,24 +1579,22 @@
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="10">
-        <v>360</v>
+      <c r="B30" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
     </row>
@@ -1639,24 +1602,22 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="10">
-        <v>361</v>
+      <c r="B31" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
     </row>
@@ -1664,24 +1625,22 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="10">
-        <v>965</v>
+      <c r="B32" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
     </row>
@@ -1689,24 +1648,22 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="10">
-        <v>966</v>
+      <c r="B33" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11"/>
     </row>
@@ -1714,24 +1671,22 @@
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="10">
-        <v>967</v>
+      <c r="B34" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
     </row>
@@ -1739,24 +1694,22 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="10">
-        <v>968</v>
+      <c r="B35" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
     </row>
@@ -1764,8 +1717,8 @@
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="10">
-        <v>969</v>
+      <c r="B36" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>6</v>
@@ -1774,14 +1727,12 @@
         <v>7</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="11"/>
     </row>
@@ -1789,24 +1740,22 @@
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="10">
-        <v>970</v>
+      <c r="B37" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="11"/>
     </row>
@@ -1814,24 +1763,22 @@
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="10">
-        <v>971</v>
+      <c r="B38" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="11"/>
     </row>
@@ -1839,24 +1786,22 @@
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="10">
-        <v>972</v>
+      <c r="B39" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="11"/>
     </row>
@@ -1864,24 +1809,22 @@
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="10">
-        <v>973</v>
+      <c r="B40" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="11"/>
     </row>
@@ -1889,24 +1832,22 @@
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="10">
-        <v>974</v>
+      <c r="B41" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="11"/>
     </row>
@@ -1914,24 +1855,22 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="10">
-        <v>975</v>
+      <c r="B42" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="11"/>
     </row>
@@ -1939,24 +1878,22 @@
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="10">
-        <v>976</v>
+      <c r="B43" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
     </row>
@@ -1964,24 +1901,22 @@
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="10">
-        <v>977</v>
+      <c r="B44" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="11"/>
     </row>
@@ -1989,24 +1924,22 @@
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="10">
-        <v>978</v>
+      <c r="B45" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="11"/>
     </row>
@@ -2014,24 +1947,22 @@
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="10">
-        <v>979</v>
+      <c r="B46" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="11"/>
     </row>
@@ -2039,24 +1970,22 @@
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="10">
-        <v>980</v>
+      <c r="B47" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="11"/>
     </row>
@@ -2064,24 +1993,22 @@
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="10">
-        <v>981</v>
+      <c r="B48" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="11"/>
     </row>
@@ -2089,24 +2016,22 @@
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="10">
-        <v>982</v>
+      <c r="B49" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="11"/>
     </row>
@@ -2114,24 +2039,22 @@
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="10">
-        <v>983</v>
+      <c r="B50" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="11"/>
     </row>
@@ -2139,24 +2062,22 @@
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="10">
-        <v>984</v>
+      <c r="B51" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="11"/>
     </row>
@@ -2164,24 +2085,22 @@
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="10">
-        <v>985</v>
+      <c r="B52" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="11"/>
     </row>
@@ -2189,24 +2108,22 @@
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="10">
-        <v>986</v>
+      <c r="B53" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="11"/>
     </row>
@@ -2214,24 +2131,22 @@
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="10">
-        <v>987</v>
+      <c r="B54" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="11"/>
     </row>
@@ -2239,24 +2154,22 @@
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="10">
-        <v>988</v>
+      <c r="B55" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="11"/>
     </row>
@@ -2264,24 +2177,22 @@
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="10">
-        <v>989</v>
+      <c r="B56" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="11"/>
     </row>
@@ -2289,24 +2200,22 @@
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="10">
-        <v>990</v>
+      <c r="B57" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="11"/>
     </row>
@@ -2314,24 +2223,22 @@
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="10">
-        <v>991</v>
+      <c r="B58" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="11"/>
     </row>
@@ -2339,24 +2246,22 @@
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="10">
-        <v>992</v>
+      <c r="B59" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
     </row>
@@ -2364,24 +2269,22 @@
       <c r="A60" s="7">
         <v>57</v>
       </c>
-      <c r="B60" s="10">
-        <v>993</v>
+      <c r="B60" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="11"/>
     </row>
@@ -2389,24 +2292,22 @@
       <c r="A61" s="7">
         <v>58</v>
       </c>
-      <c r="B61" s="10">
-        <v>994</v>
+      <c r="B61" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
     </row>
@@ -2414,24 +2315,22 @@
       <c r="A62" s="7">
         <v>59</v>
       </c>
-      <c r="B62" s="10">
-        <v>995</v>
+      <c r="B62" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
     </row>
@@ -2439,24 +2338,22 @@
       <c r="A63" s="7">
         <v>60</v>
       </c>
-      <c r="B63" s="10">
-        <v>996</v>
+      <c r="B63" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="11"/>
     </row>
@@ -2464,24 +2361,22 @@
       <c r="A64" s="7">
         <v>61</v>
       </c>
-      <c r="B64" s="10">
-        <v>997</v>
+      <c r="B64" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="11"/>
     </row>
@@ -2489,24 +2384,22 @@
       <c r="A65" s="7">
         <v>62</v>
       </c>
-      <c r="B65" s="10">
-        <v>998</v>
+      <c r="B65" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="11"/>
     </row>
@@ -2514,24 +2407,22 @@
       <c r="A66" s="7">
         <v>63</v>
       </c>
-      <c r="B66" s="10">
-        <v>999</v>
+      <c r="B66" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
     </row>
@@ -2539,24 +2430,22 @@
       <c r="A67" s="7">
         <v>64</v>
       </c>
-      <c r="B67" s="10">
-        <v>1000</v>
+      <c r="B67" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="11"/>
     </row>
@@ -2564,24 +2453,22 @@
       <c r="A68" s="7">
         <v>65</v>
       </c>
-      <c r="B68" s="10">
-        <v>1001</v>
+      <c r="B68" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="11"/>
     </row>
@@ -2589,24 +2476,22 @@
       <c r="A69" s="7">
         <v>66</v>
       </c>
-      <c r="B69" s="10">
-        <v>1002</v>
+      <c r="B69" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="11"/>
     </row>
@@ -2614,24 +2499,22 @@
       <c r="A70" s="7">
         <v>67</v>
       </c>
-      <c r="B70" s="10">
-        <v>1003</v>
+      <c r="B70" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="11"/>
     </row>
@@ -2639,24 +2522,22 @@
       <c r="A71" s="7">
         <v>68</v>
       </c>
-      <c r="B71" s="10">
-        <v>1004</v>
+      <c r="B71" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="11"/>
     </row>
@@ -2664,24 +2545,22 @@
       <c r="A72" s="7">
         <v>69</v>
       </c>
-      <c r="B72" s="10">
-        <v>1005</v>
+      <c r="B72" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="11"/>
     </row>
@@ -2689,24 +2568,22 @@
       <c r="A73" s="7">
         <v>70</v>
       </c>
-      <c r="B73" s="10">
-        <v>1006</v>
+      <c r="B73" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="11"/>
     </row>
@@ -2714,24 +2591,22 @@
       <c r="A74" s="7">
         <v>71</v>
       </c>
-      <c r="B74" s="10">
-        <v>1227</v>
+      <c r="B74" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="11"/>
     </row>
@@ -2739,24 +2614,22 @@
       <c r="A75" s="7">
         <v>72</v>
       </c>
-      <c r="B75" s="10">
-        <v>1586</v>
+      <c r="B75" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="11"/>
     </row>
@@ -2764,8 +2637,8 @@
       <c r="A76" s="7">
         <v>73</v>
       </c>
-      <c r="B76" s="10">
-        <v>1587</v>
+      <c r="B76" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>6</v>
@@ -2774,14 +2647,12 @@
         <v>7</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="11"/>
     </row>
@@ -2789,24 +2660,22 @@
       <c r="A77" s="7">
         <v>74</v>
       </c>
-      <c r="B77" s="10">
-        <v>1588</v>
+      <c r="B77" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="11"/>
     </row>
@@ -2814,24 +2683,22 @@
       <c r="A78" s="7">
         <v>75</v>
       </c>
-      <c r="B78" s="10">
-        <v>1589</v>
+      <c r="B78" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="11"/>
     </row>
@@ -2839,24 +2706,22 @@
       <c r="A79" s="7">
         <v>76</v>
       </c>
-      <c r="B79" s="10">
-        <v>1590</v>
+      <c r="B79" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="11"/>
     </row>
@@ -2864,24 +2729,22 @@
       <c r="A80" s="7">
         <v>77</v>
       </c>
-      <c r="B80" s="10">
-        <v>1591</v>
+      <c r="B80" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="11"/>
     </row>
@@ -2889,24 +2752,22 @@
       <c r="A81" s="7">
         <v>78</v>
       </c>
-      <c r="B81" s="10">
-        <v>1592</v>
+      <c r="B81" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="11"/>
     </row>
@@ -2914,24 +2775,22 @@
       <c r="A82" s="7">
         <v>79</v>
       </c>
-      <c r="B82" s="10">
-        <v>1593</v>
+      <c r="B82" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="11"/>
     </row>
@@ -2939,24 +2798,22 @@
       <c r="A83" s="7">
         <v>80</v>
       </c>
-      <c r="B83" s="10">
-        <v>1594</v>
+      <c r="B83" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="11"/>
     </row>
@@ -2964,24 +2821,22 @@
       <c r="A84" s="7">
         <v>81</v>
       </c>
-      <c r="B84" s="10">
-        <v>1595</v>
+      <c r="B84" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="11"/>
     </row>
@@ -2989,24 +2844,22 @@
       <c r="A85" s="7">
         <v>82</v>
       </c>
-      <c r="B85" s="10">
-        <v>1596</v>
+      <c r="B85" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="11"/>
     </row>
@@ -3014,24 +2867,22 @@
       <c r="A86" s="7">
         <v>83</v>
       </c>
-      <c r="B86" s="10">
-        <v>1597</v>
+      <c r="B86" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="11"/>
     </row>
@@ -3039,24 +2890,22 @@
       <c r="A87" s="7">
         <v>84</v>
       </c>
-      <c r="B87" s="10">
-        <v>1598</v>
+      <c r="B87" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="11"/>
     </row>
@@ -3064,24 +2913,22 @@
       <c r="A88" s="7">
         <v>85</v>
       </c>
-      <c r="B88" s="10">
-        <v>1599</v>
+      <c r="B88" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="11"/>
     </row>
@@ -3089,24 +2936,22 @@
       <c r="A89" s="7">
         <v>86</v>
       </c>
-      <c r="B89" s="10">
-        <v>1600</v>
+      <c r="B89" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="11"/>
     </row>
@@ -3114,24 +2959,22 @@
       <c r="A90" s="7">
         <v>87</v>
       </c>
-      <c r="B90" s="10">
-        <v>1601</v>
+      <c r="B90" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="11"/>
     </row>
@@ -3139,24 +2982,22 @@
       <c r="A91" s="7">
         <v>88</v>
       </c>
-      <c r="B91" s="10">
-        <v>1602</v>
+      <c r="B91" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="11"/>
     </row>
@@ -3164,24 +3005,22 @@
       <c r="A92" s="7">
         <v>89</v>
       </c>
-      <c r="B92" s="10">
-        <v>1603</v>
+      <c r="B92" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="11"/>
     </row>
@@ -3189,24 +3028,22 @@
       <c r="A93" s="7">
         <v>90</v>
       </c>
-      <c r="B93" s="10">
-        <v>1604</v>
+      <c r="B93" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="11"/>
     </row>
@@ -3214,24 +3051,22 @@
       <c r="A94" s="7">
         <v>91</v>
       </c>
-      <c r="B94" s="10">
-        <v>1605</v>
+      <c r="B94" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="11"/>
     </row>
@@ -3239,24 +3074,22 @@
       <c r="A95" s="7">
         <v>92</v>
       </c>
-      <c r="B95" s="10">
-        <v>1606</v>
+      <c r="B95" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="11"/>
     </row>
@@ -3264,24 +3097,22 @@
       <c r="A96" s="7">
         <v>93</v>
       </c>
-      <c r="B96" s="10">
-        <v>1607</v>
+      <c r="B96" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="11"/>
     </row>
@@ -3289,24 +3120,22 @@
       <c r="A97" s="7">
         <v>94</v>
       </c>
-      <c r="B97" s="10">
-        <v>1608</v>
+      <c r="B97" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G97" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="11"/>
     </row>
@@ -3314,24 +3143,22 @@
       <c r="A98" s="7">
         <v>95</v>
       </c>
-      <c r="B98" s="10">
-        <v>1609</v>
+      <c r="B98" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G98" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="11"/>
     </row>
@@ -3339,24 +3166,22 @@
       <c r="A99" s="7">
         <v>96</v>
       </c>
-      <c r="B99" s="10">
-        <v>1610</v>
+      <c r="B99" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G99" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="11"/>
     </row>
@@ -3364,8 +3189,8 @@
       <c r="A100" s="7">
         <v>97</v>
       </c>
-      <c r="B100" s="10">
-        <v>1611</v>
+      <c r="B100" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>6</v>
@@ -3374,14 +3199,12 @@
         <v>7</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G100" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="11"/>
     </row>
@@ -3389,24 +3212,22 @@
       <c r="A101" s="7">
         <v>98</v>
       </c>
-      <c r="B101" s="10">
-        <v>1612</v>
+      <c r="B101" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G101" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="11"/>
     </row>
@@ -3414,24 +3235,22 @@
       <c r="A102" s="7">
         <v>99</v>
       </c>
-      <c r="B102" s="10">
-        <v>1613</v>
+      <c r="B102" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="11"/>
     </row>
@@ -3439,24 +3258,22 @@
       <c r="A103" s="7">
         <v>100</v>
       </c>
-      <c r="B103" s="10">
-        <v>1614</v>
+      <c r="B103" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G103" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="11"/>
     </row>
@@ -3464,24 +3281,22 @@
       <c r="A104" s="7">
         <v>101</v>
       </c>
-      <c r="B104" s="10">
-        <v>1615</v>
+      <c r="B104" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G104" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="11"/>
     </row>
@@ -3489,24 +3304,22 @@
       <c r="A105" s="7">
         <v>102</v>
       </c>
-      <c r="B105" s="10">
-        <v>1616</v>
+      <c r="B105" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="11"/>
     </row>
@@ -3514,24 +3327,22 @@
       <c r="A106" s="7">
         <v>103</v>
       </c>
-      <c r="B106" s="10">
-        <v>1617</v>
+      <c r="B106" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G106" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="11"/>
     </row>
@@ -3539,24 +3350,22 @@
       <c r="A107" s="7">
         <v>104</v>
       </c>
-      <c r="B107" s="10">
-        <v>1793</v>
+      <c r="B107" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G107" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="11"/>
     </row>
@@ -3564,24 +3373,22 @@
       <c r="A108" s="7">
         <v>105</v>
       </c>
-      <c r="B108" s="10">
-        <v>2102</v>
+      <c r="B108" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="11"/>
     </row>
@@ -3589,24 +3396,22 @@
       <c r="A109" s="7">
         <v>106</v>
       </c>
-      <c r="B109" s="10">
-        <v>2103</v>
+      <c r="B109" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="11"/>
     </row>
@@ -3614,24 +3419,22 @@
       <c r="A110" s="7">
         <v>107</v>
       </c>
-      <c r="B110" s="10">
-        <v>2104</v>
+      <c r="B110" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="11"/>
     </row>
@@ -3639,24 +3442,22 @@
       <c r="A111" s="7">
         <v>108</v>
       </c>
-      <c r="B111" s="10">
-        <v>2105</v>
+      <c r="B111" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="11"/>
     </row>
@@ -3664,24 +3465,22 @@
       <c r="A112" s="7">
         <v>109</v>
       </c>
-      <c r="B112" s="10">
-        <v>2106</v>
+      <c r="B112" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="11"/>
     </row>
@@ -3689,24 +3488,22 @@
       <c r="A113" s="7">
         <v>110</v>
       </c>
-      <c r="B113" s="10">
-        <v>2107</v>
+      <c r="B113" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="11"/>
     </row>
@@ -3714,24 +3511,22 @@
       <c r="A114" s="7">
         <v>111</v>
       </c>
-      <c r="B114" s="10">
-        <v>2108</v>
+      <c r="B114" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="11"/>
     </row>
@@ -3739,24 +3534,22 @@
       <c r="A115" s="7">
         <v>112</v>
       </c>
-      <c r="B115" s="10">
-        <v>2109</v>
+      <c r="B115" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="11"/>
     </row>
@@ -3764,24 +3557,22 @@
       <c r="A116" s="7">
         <v>113</v>
       </c>
-      <c r="B116" s="10">
-        <v>2110</v>
+      <c r="B116" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="11"/>
     </row>
@@ -3789,24 +3580,22 @@
       <c r="A117" s="7">
         <v>114</v>
       </c>
-      <c r="B117" s="10">
-        <v>2111</v>
+      <c r="B117" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="11"/>
     </row>
@@ -3814,24 +3603,22 @@
       <c r="A118" s="7">
         <v>115</v>
       </c>
-      <c r="B118" s="10">
-        <v>2112</v>
+      <c r="B118" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="11"/>
     </row>
@@ -3839,24 +3626,22 @@
       <c r="A119" s="7">
         <v>116</v>
       </c>
-      <c r="B119" s="10">
-        <v>2113</v>
+      <c r="B119" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="11"/>
     </row>
@@ -3864,24 +3649,22 @@
       <c r="A120" s="7">
         <v>117</v>
       </c>
-      <c r="B120" s="10">
-        <v>2114</v>
+      <c r="B120" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G120" s="10"/>
       <c r="H120" s="10"/>
       <c r="I120" s="11"/>
     </row>
@@ -3889,24 +3672,22 @@
       <c r="A121" s="7">
         <v>118</v>
       </c>
-      <c r="B121" s="10">
-        <v>2115</v>
+      <c r="B121" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="11"/>
     </row>
@@ -3914,24 +3695,22 @@
       <c r="A122" s="7">
         <v>119</v>
       </c>
-      <c r="B122" s="10">
-        <v>2116</v>
+      <c r="B122" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="11"/>
     </row>
@@ -3939,24 +3718,22 @@
       <c r="A123" s="7">
         <v>120</v>
       </c>
-      <c r="B123" s="10">
-        <v>2117</v>
+      <c r="B123" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="11"/>
     </row>
@@ -3964,24 +3741,22 @@
       <c r="A124" s="7">
         <v>121</v>
       </c>
-      <c r="B124" s="10">
-        <v>2118</v>
+      <c r="B124" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="11"/>
     </row>
@@ -3989,24 +3764,22 @@
       <c r="A125" s="7">
         <v>122</v>
       </c>
-      <c r="B125" s="10">
-        <v>2119</v>
+      <c r="B125" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="11"/>
     </row>
@@ -4014,24 +3787,22 @@
       <c r="A126" s="7">
         <v>123</v>
       </c>
-      <c r="B126" s="10">
-        <v>2120</v>
+      <c r="B126" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="11"/>
     </row>
@@ -4039,24 +3810,22 @@
       <c r="A127" s="7">
         <v>124</v>
       </c>
-      <c r="B127" s="10">
-        <v>2121</v>
+      <c r="B127" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="11"/>
     </row>
@@ -4064,24 +3833,22 @@
       <c r="A128" s="7">
         <v>125</v>
       </c>
-      <c r="B128" s="10">
-        <v>2122</v>
+      <c r="B128" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="11"/>
     </row>
@@ -4089,24 +3856,22 @@
       <c r="A129" s="7">
         <v>126</v>
       </c>
-      <c r="B129" s="10">
-        <v>2123</v>
+      <c r="B129" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="11"/>
     </row>
@@ -4114,24 +3879,22 @@
       <c r="A130" s="7">
         <v>127</v>
       </c>
-      <c r="B130" s="10">
-        <v>2124</v>
+      <c r="B130" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="11"/>
     </row>
@@ -4139,24 +3902,22 @@
       <c r="A131" s="7">
         <v>128</v>
       </c>
-      <c r="B131" s="10">
-        <v>2125</v>
+      <c r="B131" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="11"/>
     </row>
@@ -4164,24 +3925,22 @@
       <c r="A132" s="7">
         <v>129</v>
       </c>
-      <c r="B132" s="10">
-        <v>2126</v>
+      <c r="B132" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G132" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="11"/>
     </row>
@@ -4189,24 +3948,22 @@
       <c r="A133" s="7">
         <v>130</v>
       </c>
-      <c r="B133" s="10">
-        <v>2127</v>
+      <c r="B133" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G133" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="11"/>
     </row>
@@ -4214,24 +3971,22 @@
       <c r="A134" s="7">
         <v>131</v>
       </c>
-      <c r="B134" s="10">
-        <v>2128</v>
+      <c r="B134" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G134" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="11"/>
     </row>
@@ -4239,24 +3994,22 @@
       <c r="A135" s="7">
         <v>132</v>
       </c>
-      <c r="B135" s="10">
-        <v>2129</v>
+      <c r="B135" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="11"/>
     </row>
@@ -4264,8 +4017,8 @@
       <c r="A136" s="7">
         <v>133</v>
       </c>
-      <c r="B136" s="10">
-        <v>2130</v>
+      <c r="B136" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>6</v>
@@ -4274,14 +4027,12 @@
         <v>7</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G136" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="11"/>
     </row>
@@ -4289,24 +4040,22 @@
       <c r="A137" s="7">
         <v>134</v>
       </c>
-      <c r="B137" s="10">
-        <v>2279</v>
+      <c r="B137" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G137" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="11"/>
     </row>
@@ -4314,24 +4063,22 @@
       <c r="A138" s="7">
         <v>135</v>
       </c>
-      <c r="B138" s="10">
-        <v>2375</v>
+      <c r="B138" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="11"/>
     </row>
@@ -4339,24 +4086,22 @@
       <c r="A139" s="7">
         <v>136</v>
       </c>
-      <c r="B139" s="10">
-        <v>2376</v>
+      <c r="B139" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="11"/>
     </row>
@@ -4364,24 +4109,22 @@
       <c r="A140" s="7">
         <v>137</v>
       </c>
-      <c r="B140" s="10">
-        <v>2377</v>
+      <c r="B140" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="11"/>
     </row>
@@ -4389,24 +4132,22 @@
       <c r="A141" s="7">
         <v>138</v>
       </c>
-      <c r="B141" s="10">
-        <v>2378</v>
+      <c r="B141" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="11"/>
     </row>
@@ -4414,24 +4155,22 @@
       <c r="A142" s="7">
         <v>139</v>
       </c>
-      <c r="B142" s="10">
-        <v>2379</v>
+      <c r="B142" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G142" s="10"/>
       <c r="H142" s="10"/>
       <c r="I142" s="11"/>
     </row>
@@ -4439,24 +4178,22 @@
       <c r="A143" s="7">
         <v>140</v>
       </c>
-      <c r="B143" s="10">
-        <v>2380</v>
+      <c r="B143" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G143" s="10"/>
       <c r="H143" s="10"/>
       <c r="I143" s="11"/>
     </row>
@@ -4464,24 +4201,22 @@
       <c r="A144" s="7">
         <v>141</v>
       </c>
-      <c r="B144" s="10">
-        <v>2381</v>
+      <c r="B144" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="11"/>
     </row>
@@ -4489,24 +4224,22 @@
       <c r="A145" s="7">
         <v>142</v>
       </c>
-      <c r="B145" s="10">
-        <v>2382</v>
+      <c r="B145" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="11"/>
     </row>
@@ -4514,24 +4247,22 @@
       <c r="A146" s="7">
         <v>143</v>
       </c>
-      <c r="B146" s="10">
-        <v>2383</v>
+      <c r="B146" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="11"/>
     </row>
@@ -4539,24 +4270,22 @@
       <c r="A147" s="7">
         <v>144</v>
       </c>
-      <c r="B147" s="10">
-        <v>2384</v>
+      <c r="B147" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G147" s="10"/>
       <c r="H147" s="10"/>
       <c r="I147" s="11"/>
     </row>
@@ -4564,24 +4293,22 @@
       <c r="A148" s="7">
         <v>145</v>
       </c>
-      <c r="B148" s="10">
-        <v>2573</v>
+      <c r="B148" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="11"/>
     </row>
@@ -4589,24 +4316,22 @@
       <c r="A149" s="7">
         <v>146</v>
       </c>
-      <c r="B149" s="10">
-        <v>2574</v>
+      <c r="B149" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="11"/>
     </row>
@@ -4614,24 +4339,22 @@
       <c r="A150" s="7">
         <v>147</v>
       </c>
-      <c r="B150" s="10">
-        <v>2575</v>
+      <c r="B150" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="11"/>
     </row>
@@ -4639,24 +4362,22 @@
       <c r="A151" s="7">
         <v>148</v>
       </c>
-      <c r="B151" s="10">
-        <v>2576</v>
+      <c r="B151" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="11"/>
     </row>
@@ -4664,24 +4385,22 @@
       <c r="A152" s="7">
         <v>149</v>
       </c>
-      <c r="B152" s="10">
-        <v>2577</v>
+      <c r="B152" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G152" s="10"/>
       <c r="H152" s="10"/>
       <c r="I152" s="11"/>
     </row>
@@ -4689,24 +4408,22 @@
       <c r="A153" s="7">
         <v>150</v>
       </c>
-      <c r="B153" s="10">
-        <v>2578</v>
+      <c r="B153" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="11"/>
     </row>
@@ -4714,24 +4431,22 @@
       <c r="A154" s="7">
         <v>151</v>
       </c>
-      <c r="B154" s="10">
-        <v>2579</v>
+      <c r="B154" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G154" s="10"/>
       <c r="H154" s="10"/>
       <c r="I154" s="11"/>
     </row>
@@ -4739,24 +4454,22 @@
       <c r="A155" s="7">
         <v>152</v>
       </c>
-      <c r="B155" s="10">
-        <v>2580</v>
+      <c r="B155" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G155" s="10"/>
       <c r="H155" s="10"/>
       <c r="I155" s="11"/>
     </row>
@@ -4764,24 +4477,22 @@
       <c r="A156" s="7">
         <v>153</v>
       </c>
-      <c r="B156" s="10">
-        <v>2581</v>
+      <c r="B156" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="11"/>
     </row>
@@ -4789,24 +4500,22 @@
       <c r="A157" s="7">
         <v>154</v>
       </c>
-      <c r="B157" s="10">
-        <v>2582</v>
+      <c r="B157" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G157" s="10"/>
       <c r="H157" s="10"/>
       <c r="I157" s="11"/>
     </row>
@@ -4814,24 +4523,22 @@
       <c r="A158" s="7">
         <v>155</v>
       </c>
-      <c r="B158" s="10">
-        <v>2583</v>
+      <c r="B158" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="11"/>
     </row>
@@ -4839,24 +4546,22 @@
       <c r="A159" s="7">
         <v>156</v>
       </c>
-      <c r="B159" s="10">
-        <v>2584</v>
+      <c r="B159" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="11"/>
     </row>
@@ -4864,24 +4569,22 @@
       <c r="A160" s="7">
         <v>157</v>
       </c>
-      <c r="B160" s="10">
-        <v>2585</v>
+      <c r="B160" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="11"/>
     </row>
@@ -4889,177 +4592,1210 @@
       <c r="A161" s="7">
         <v>158</v>
       </c>
-      <c r="B161" s="10">
-        <v>2586</v>
+      <c r="B161" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="11"/>
     </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="7">
+        <v>159</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="7">
+        <v>160</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="11"/>
+    </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B164" t="s">
-        <v>103</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="A164" s="7">
+        <v>161</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="11"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="7">
+        <v>162</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="11"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="7">
+        <v>163</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="11"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="7">
+        <v>164</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="11"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="7">
+        <v>165</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="11"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="7">
+        <v>166</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="11"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="7">
+        <v>167</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="11"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="7">
+        <v>168</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="11"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="7">
+        <v>169</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="11"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="7">
+        <v>170</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="11"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="7">
+        <v>171</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="11"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="7">
+        <v>172</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="11"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="7">
+        <v>173</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="11"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="7">
+        <v>174</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="11"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="7">
+        <v>175</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="11"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="7">
+        <v>176</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="11"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="7">
+        <v>177</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="11"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="7">
+        <v>178</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="11"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="7">
+        <v>179</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="11"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="7">
+        <v>180</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="11"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="7">
+        <v>181</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="11"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="7">
+        <v>182</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="11"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="7">
+        <v>183</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="11"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="7">
+        <v>184</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="11"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="7">
+        <v>185</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="11"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="7">
+        <v>186</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="11"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="7">
+        <v>187</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="11"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="7">
+        <v>188</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="11"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="7">
+        <v>189</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="11"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="7">
+        <v>190</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="11"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="7">
+        <v>191</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="11"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="7">
+        <v>192</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="11"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="7">
+        <v>193</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="11"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="7">
+        <v>194</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="11"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="7">
+        <v>195</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="11"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="7">
+        <v>196</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="11"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="7">
+        <v>197</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="11"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="7">
+        <v>198</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="11"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="7">
+        <v>199</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="11"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="7">
+        <v>200</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="11"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="7">
+        <v>201</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F204" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="11"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="7">
+        <v>202</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="11"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="7">
+        <v>203</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="11"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
         <v>104</v>
       </c>
-      <c r="H164" t="s">
+      <c r="E209" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B169" t="s">
+      <c r="H209" t="s">
         <v>106</v>
       </c>
-      <c r="E169" t="s">
-        <v>106</v>
-      </c>
-      <c r="H169" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B172" t="s">
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
         <v>107</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E214" t="s">
         <v>107</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H214" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B174" t="s">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
         <v>108</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E217" t="s">
         <v>108</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H217" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B179" s="2" t="s">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B181" s="3" t="s">
+      <c r="E219" t="s">
+        <v>109</v>
+      </c>
+      <c r="H219" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B224" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C181" s="3" t="s">
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B226" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B227" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B228" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B229" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B230" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B231" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B232" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B233" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B182" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B183" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B184" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B185" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B186" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B187" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B188" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5067,7 +5803,7 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H161 I4:I161" xr:uid="{8DB6AC42-1D6E-4DB5-B6EB-7A464264B88D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H206 I4:I206" xr:uid="{6E89A09D-BC47-4344-930D-3906A27DB1D9}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
